--- a/양식샘플-테이블명세-양식.xlsx
+++ b/양식샘플-테이블명세-양식.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050201\Documents\workspace\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505202\Documents\workspace\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2F4C2-D813-48A3-B0E7-4031EEBAA3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E44C51-6252-4C86-893C-144E98489D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="2" r:id="rId1"/>
-    <sheet name="교수정보" sheetId="3" r:id="rId2"/>
+    <sheet name="교수정보" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,7 +120,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>천경우</t>
+    <t>우 홍민</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -174,7 +174,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> tbl_student</t>
+    <t>tbl_student</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -210,6 +210,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>VARCHAR(13)</t>
+  </si>
+  <si>
     <t>VARCHAR(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,11 +221,84 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명세 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_professor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학사관리에서 교수정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수번호</t>
+  </si>
+  <si>
+    <t>담당교수</t>
+  </si>
+  <si>
+    <t>연락처</t>
+  </si>
+  <si>
+    <t>문자열(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prof_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prof_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prof_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR(13)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(125)</t>
+    <t>PRIMARY KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -231,55 +307,6 @@
   </si>
   <si>
     <t>NOT NULL UNIQUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명세 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tbl_professor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학사관리에서 교수정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수번호</t>
-  </si>
-  <si>
-    <t>담당교수</t>
-  </si>
-  <si>
-    <t>연락처</t>
-  </si>
-  <si>
-    <t>문자열(4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -716,13 +743,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +886,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1184,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1968,7 +2025,7 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="39" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2000,7 +2057,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>51</v>
@@ -2018,14 +2075,14 @@
       <c r="C9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2048,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2064,7 +2121,7 @@
       <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="38" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -2257,11 +2314,15 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="38">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="40">
         <v>45307</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" s="23" t="s">
         <v>54</v>
       </c>
@@ -2394,10 +2455,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE3D543-C67D-4E35-B05D-FE965501F947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0DA3F9-1F85-4EDF-9AE7-EF1E80581B6B}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3147,7 +3208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -3158,40 +3219,40 @@
         <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>31</v>
+      <c r="D7" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -3207,17 +3268,15 @@
         <v>60</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3229,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -3259,7 +3318,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -3446,11 +3505,15 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="38">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="40">
         <v>45307</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" s="23" t="s">
         <v>54</v>
       </c>
